--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5110" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="498">
   <si>
     <t>Path</t>
   </si>
@@ -782,6 +782,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://loinc.org"/&gt;
   &lt;code value="55284-4"/&gt;
+  &lt;display value="Blood pressure systolic and diastolic"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -791,6 +792,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://loinc.org"/&gt;
   &lt;code value="8716-3"/&gt;
+  &lt;display value="Vital signs"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -1425,10 +1427,24 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resource}
+</t>
+  </si>
+  <si>
+    <t>allow a heart-rate observation that is related to this</t>
+  </si>
+  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>heartRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate)
+</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1578,81 +1594,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>heartRate</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="8867-4"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;unit value="beats/minute"/&gt;
-  &lt;system value="http://unitsofmeasure.org"/&gt;
-  &lt;code value="/min"/&gt;
-&lt;/valueQuantity&gt;</t>
-  </si>
-  <si>
     <t>bodyContextSitting</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="69000-8"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>Sitting</t>
-  </si>
-  <si>
     <t>bodyContextStanding</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="69001-6"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Standing</t>
-  </si>
-  <si>
     <t>bodyContextSupine</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="68999-2"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Supine</t>
-  </si>
-  <si>
     <t>bodyContextResting</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="40443-4"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Resting</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AO123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1837,7 +1788,7 @@
     <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="47.25390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -8333,10 +8284,10 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -8392,16 +8343,16 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>440</v>
@@ -8425,10 +8376,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8439,9 +8390,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8450,7 +8403,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8462,16 +8415,16 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8521,7 +8474,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8542,10 +8495,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8556,7 +8509,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8564,10 +8517,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8579,20 +8532,18 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8628,19 +8579,19 @@
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>459</v>
+        <v>45</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>460</v>
+        <v>45</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8661,10 +8612,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8675,7 +8626,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8683,10 +8634,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8695,19 +8646,23 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8743,31 +8698,31 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8776,10 +8731,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8790,18 +8745,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8813,17 +8768,15 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8872,19 +8825,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8907,11 +8860,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8924,26 +8877,24 @@
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8991,7 +8942,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9015,7 +8966,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9026,42 +8977,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9086,13 +9037,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9110,34 +9061,34 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9145,7 +9096,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9153,7 +9104,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>55</v>
@@ -9168,19 +9119,19 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>473</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9205,13 +9156,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9229,10 +9180,10 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>55</v>
@@ -9250,16 +9201,16 @@
         <v>474</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -9284,22 +9235,22 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>476</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9324,13 +9275,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9357,7 +9308,7 @@
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9366,19 +9317,19 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9387,14 +9338,14 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9409,16 +9360,16 @@
         <v>204</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>333</v>
+        <v>482</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9446,10 +9397,10 @@
         <v>113</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9473,10 +9424,10 @@
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9485,28 +9436,28 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9525,19 +9476,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9562,13 +9513,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9586,7 +9537,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9604,37 +9555,35 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9643,22 +9592,22 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9707,7 +9656,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9728,10 +9677,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9742,15 +9691,17 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>55</v>
@@ -9762,19 +9713,23 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9822,19 +9777,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9843,10 +9798,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9857,18 +9812,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9880,17 +9835,15 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9939,19 +9892,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9974,11 +9927,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9991,26 +9944,24 @@
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10058,7 +10009,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10082,7 +10033,7 @@
         <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10093,42 +10044,42 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10138,7 +10089,7 @@
         <v>45</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>484</v>
+        <v>45</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>45</v>
@@ -10153,13 +10104,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10177,34 +10128,34 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
@@ -10212,7 +10163,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10220,7 +10171,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>55</v>
@@ -10235,19 +10186,19 @@
         <v>56</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>473</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10257,7 +10208,7 @@
         <v>45</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>45</v>
@@ -10272,32 +10223,34 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB72" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>55</v>
@@ -10315,25 +10268,23 @@
         <v>474</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10354,16 +10305,16 @@
         <v>56</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>314</v>
@@ -10376,7 +10327,7 @@
         <v>45</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>45</v>
@@ -10403,19 +10354,17 @@
         <v>45</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB73" s="2"/>
       <c r="AC73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10433,7 +10382,7 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>317</v>
@@ -10452,7 +10401,9 @@
       <c r="A74" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10470,22 +10421,22 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>204</v>
+        <v>489</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10495,7 +10446,7 @@
         <v>45</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>45</v>
@@ -10510,13 +10461,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10543,7 +10494,7 @@
         <v>55</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>67</v>
@@ -10552,19 +10503,19 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -10573,14 +10524,14 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10595,16 +10546,16 @@
         <v>204</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>333</v>
+        <v>482</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10632,10 +10583,10 @@
         <v>113</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10659,10 +10610,10 @@
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>67</v>
@@ -10671,28 +10622,28 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10711,19 +10662,19 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10748,13 +10699,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10772,7 +10723,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10790,37 +10741,35 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -10829,22 +10778,22 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10893,7 +10842,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10914,10 +10863,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10928,15 +10877,17 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>55</v>
@@ -10948,19 +10899,23 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11008,19 +10963,19 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>45</v>
@@ -11029,10 +10984,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11043,18 +10998,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -11066,17 +11021,15 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11125,19 +11078,19 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>45</v>
@@ -11160,11 +11113,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11177,26 +11130,24 @@
         <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11244,7 +11195,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11268,7 +11219,7 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11279,42 +11230,42 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11324,7 +11275,7 @@
         <v>45</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>45</v>
@@ -11339,13 +11290,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11363,34 +11314,34 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
@@ -11398,7 +11349,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11406,7 +11357,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>55</v>
@@ -11421,19 +11372,19 @@
         <v>56</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>473</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11443,7 +11394,7 @@
         <v>45</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>45</v>
@@ -11458,32 +11409,34 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB82" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>55</v>
@@ -11501,25 +11454,23 @@
         <v>474</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11540,16 +11491,16 @@
         <v>56</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>314</v>
@@ -11562,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>45</v>
@@ -11589,19 +11540,17 @@
         <v>45</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11619,7 +11568,7 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>317</v>
@@ -11638,7 +11587,9 @@
       <c r="A84" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="C84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11656,22 +11607,22 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>204</v>
+        <v>489</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>476</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11681,7 +11632,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>45</v>
@@ -11696,13 +11647,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11729,7 +11680,7 @@
         <v>55</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>67</v>
@@ -11738,19 +11689,19 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -11759,14 +11710,14 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
@@ -11781,16 +11732,16 @@
         <v>204</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>333</v>
+        <v>482</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11818,10 +11769,10 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -11845,10 +11796,10 @@
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>67</v>
@@ -11857,28 +11808,28 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11897,19 +11848,19 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -11934,13 +11885,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -11958,7 +11909,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11976,28 +11927,26 @@
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12006,7 +11955,7 @@
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12015,22 +11964,22 @@
         <v>45</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12079,7 +12028,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12100,10 +12049,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12114,9 +12063,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12134,19 +12085,23 @@
         <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12194,19 +12149,19 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>45</v>
@@ -12215,10 +12170,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12229,18 +12184,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
@@ -12252,17 +12207,15 @@
         <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
@@ -12311,19 +12264,19 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>45</v>
@@ -12346,11 +12299,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12363,26 +12316,24 @@
         <v>45</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
       </c>
@@ -12430,7 +12381,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12454,7 +12405,7 @@
         <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12465,42 +12416,42 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -12510,7 +12461,7 @@
         <v>45</v>
       </c>
       <c r="R91" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>45</v>
@@ -12525,13 +12476,13 @@
         <v>45</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>45</v>
@@ -12549,34 +12500,34 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>45</v>
@@ -12584,7 +12535,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12592,7 +12543,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>55</v>
@@ -12607,19 +12558,19 @@
         <v>56</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>473</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -12644,32 +12595,34 @@
         <v>45</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB92" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>55</v>
@@ -12687,25 +12640,23 @@
         <v>474</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>45</v>
       </c>
@@ -12726,16 +12677,16 @@
         <v>56</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>485</v>
+        <v>310</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>314</v>
@@ -12748,7 +12699,7 @@
         <v>45</v>
       </c>
       <c r="R93" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>45</v>
@@ -12787,7 +12738,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12805,7 +12756,7 @@
         <v>45</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>317</v>
@@ -12822,7 +12773,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12848,13 +12799,13 @@
         <v>204</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>324</v>
@@ -12906,7 +12857,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -12941,7 +12892,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13025,7 +12976,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13060,7 +13011,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13086,10 +13037,10 @@
         <v>45</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>390</v>
@@ -13144,7 +13095,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13179,10 +13130,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>45</v>
@@ -13207,16 +13158,16 @@
         <v>387</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13265,7 +13216,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13286,10 +13237,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13300,7 +13251,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13415,7 +13366,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13532,7 +13483,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13651,7 +13602,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13677,13 +13628,13 @@
         <v>204</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>219</v>
@@ -13696,7 +13647,7 @@
         <v>45</v>
       </c>
       <c r="R101" t="s" s="2">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>45</v>
@@ -13735,7 +13686,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>55</v>
@@ -13753,7 +13704,7 @@
         <v>45</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>224</v>
@@ -13770,7 +13721,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13793,16 +13744,16 @@
         <v>56</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>314</v>
@@ -13842,17 +13793,19 @@
         <v>45</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB102" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -13870,7 +13823,7 @@
         <v>45</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>317</v>
@@ -13887,11 +13840,9 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
         <v>45</v>
       </c>
@@ -13909,22 +13860,22 @@
         <v>45</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>312</v>
+        <v>481</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
@@ -13934,7 +13885,7 @@
         <v>45</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>496</v>
+        <v>45</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>45</v>
@@ -13949,13 +13900,13 @@
         <v>45</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -13973,7 +13924,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -13982,7 +13933,7 @@
         <v>55</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>67</v>
@@ -13991,35 +13942,35 @@
         <v>45</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -14034,16 +13985,16 @@
         <v>204</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>476</v>
+        <v>331</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>477</v>
+        <v>332</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
@@ -14071,10 +14022,10 @@
         <v>113</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
@@ -14092,16 +14043,16 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>67</v>
@@ -14110,28 +14061,28 @@
         <v>45</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14150,19 +14101,19 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14187,13 +14138,13 @@
         <v>45</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>45</v>
@@ -14211,7 +14162,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14229,26 +14180,28 @@
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B106" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="C106" t="s" s="2">
         <v>45</v>
       </c>
@@ -14257,7 +14210,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -14266,22 +14219,22 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -14330,7 +14283,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14351,10 +14304,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>393</v>
+        <v>465</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14365,11 +14318,9 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
         <v>45</v>
       </c>
@@ -14387,23 +14338,19 @@
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>387</v>
+        <v>57</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>455</v>
+        <v>69</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -14451,19 +14398,19 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>453</v>
+        <v>71</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>45</v>
@@ -14472,10 +14419,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14486,18 +14433,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>45</v>
@@ -14509,15 +14456,17 @@
         <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14566,19 +14515,19 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>45</v>
@@ -14601,11 +14550,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14618,24 +14567,26 @@
         <v>45</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N109" s="2"/>
+      <c r="N109" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
@@ -14683,7 +14634,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14707,7 +14658,7 @@
         <v>45</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14718,42 +14669,42 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -14778,13 +14729,13 @@
         <v>45</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>45</v>
@@ -14802,34 +14753,34 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>45</v>
@@ -14837,7 +14788,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14845,7 +14796,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>55</v>
@@ -14860,19 +14811,19 @@
         <v>56</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -14882,7 +14833,7 @@
         <v>45</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>498</v>
+        <v>45</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>45</v>
@@ -14897,13 +14848,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -14921,10 +14872,10 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>55</v>
@@ -14939,24 +14890,24 @@
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14976,22 +14927,22 @@
         <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>312</v>
+        <v>481</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
@@ -15016,29 +14967,31 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB112" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15047,7 +15000,7 @@
         <v>55</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>67</v>
@@ -15056,37 +15009,35 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -15095,22 +15046,22 @@
         <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>472</v>
+        <v>331</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15120,7 +15071,7 @@
         <v>45</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>45</v>
@@ -15135,13 +15086,13 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
@@ -15159,13 +15110,13 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -15177,24 +15128,24 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15205,7 +15156,7 @@
         <v>43</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>45</v>
@@ -15217,19 +15168,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15254,13 +15205,13 @@
         <v>45</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
@@ -15278,16 +15229,16 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>67</v>
@@ -15299,10 +15250,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>155</v>
+        <v>393</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15313,18 +15264,20 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="C115" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>45</v>
@@ -15333,22 +15286,22 @@
         <v>45</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>204</v>
+        <v>387</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>331</v>
+        <v>459</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>333</v>
+        <v>461</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
@@ -15373,13 +15326,13 @@
         <v>45</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>45</v>
@@ -15397,7 +15350,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15415,24 +15368,24 @@
         <v>45</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>338</v>
+        <v>465</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>339</v>
+        <v>466</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15443,7 +15396,7 @@
         <v>43</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>45</v>
@@ -15455,20 +15408,16 @@
         <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>481</v>
+        <v>69</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>45</v>
       </c>
@@ -15516,19 +15465,19 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>480</v>
+        <v>71</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>45</v>
@@ -15537,10 +15486,10 @@
         <v>45</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>394</v>
+        <v>72</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -15551,20 +15500,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>45</v>
@@ -15573,23 +15520,21 @@
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -15637,7 +15582,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -15649,7 +15594,7 @@
         <v>45</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>45</v>
@@ -15658,10 +15603,10 @@
         <v>45</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -15672,39 +15617,43 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>69</v>
+        <v>399</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -15752,19 +15701,19 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>45</v>
@@ -15776,7 +15725,7 @@
         <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -15787,18 +15736,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>45</v>
@@ -15807,21 +15756,23 @@
         <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
@@ -15845,13 +15796,13 @@
         <v>45</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>45</v>
@@ -15869,34 +15820,34 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>45</v>
@@ -15904,42 +15855,42 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -15988,42 +15939,42 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>155</v>
+        <v>318</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16031,7 +15982,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>55</v>
@@ -16043,22 +15994,22 @@
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>204</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16068,7 +16019,7 @@
         <v>45</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>45</v>
@@ -16083,13 +16034,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16107,16 +16058,16 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>67</v>
@@ -16125,16 +16076,16 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>45</v>
@@ -16142,18 +16093,18 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>45</v>
@@ -16162,22 +16113,22 @@
         <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>472</v>
+        <v>331</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16202,35 +16153,37 @@
         <v>45</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB122" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>45</v>
@@ -16242,28 +16195,26 @@
         <v>45</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
         <v>45</v>
       </c>
@@ -16272,7 +16223,7 @@
         <v>43</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>45</v>
@@ -16281,22 +16232,22 @@
         <v>45</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -16306,7 +16257,7 @@
         <v>45</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>502</v>
+        <v>45</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>45</v>
@@ -16345,13 +16296,13 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>45</v>
@@ -16363,1566 +16314,23 @@
         <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB132" s="2"/>
-      <c r="AC132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO136" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO136">
+  <autoFilter ref="A1:AO123">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17932,7 +16340,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="493">
   <si>
     <t>Path</t>
   </si>
@@ -1469,9 +1469,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Component results</t>
   </si>
   <si>
@@ -1592,18 +1589,6 @@
     &lt;code value="8480-6"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>bodyContextSitting</t>
-  </si>
-  <si>
-    <t>bodyContextStanding</t>
-  </si>
-  <si>
-    <t>bodyContextSupine</t>
-  </si>
-  <si>
-    <t>bodyContextResting</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO123"/>
+  <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1762,7 +1747,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -8637,7 +8622,7 @@
         <v>231</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>458</v>
+        <v>231</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8652,16 +8637,16 @@
         <v>387</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8698,10 +8683,10 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AB59" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
@@ -8731,10 +8716,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8745,7 +8730,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8860,7 +8845,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8977,7 +8962,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9096,7 +9081,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9122,13 +9107,13 @@
         <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>219</v>
@@ -9180,7 +9165,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>55</v>
@@ -9198,7 +9183,7 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>224</v>
@@ -9215,7 +9200,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9241,13 +9226,13 @@
         <v>310</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>314</v>
@@ -9299,7 +9284,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9317,7 +9302,7 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>317</v>
@@ -9334,7 +9319,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9360,13 +9345,13 @@
         <v>204</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>324</v>
@@ -9418,7 +9403,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9453,7 +9438,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9537,7 +9522,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9572,7 +9557,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9598,10 +9583,10 @@
         <v>45</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>390</v>
@@ -9656,7 +9641,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9694,7 +9679,7 @@
         <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>45</v>
@@ -9719,16 +9704,16 @@
         <v>387</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9798,10 +9783,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9812,7 +9797,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9927,7 +9912,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10044,7 +10029,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10163,7 +10148,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10189,13 +10174,13 @@
         <v>204</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>219</v>
@@ -10208,7 +10193,7 @@
         <v>45</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>45</v>
@@ -10247,7 +10232,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>55</v>
@@ -10265,7 +10250,7 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>224</v>
@@ -10282,7 +10267,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10305,16 +10290,16 @@
         <v>56</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>314</v>
@@ -10364,7 +10349,7 @@
         <v>237</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10382,7 +10367,7 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>317</v>
@@ -10399,10 +10384,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>45</v>
@@ -10424,16 +10409,16 @@
         <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>314</v>
@@ -10446,7 +10431,7 @@
         <v>45</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>45</v>
@@ -10485,7 +10470,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10503,7 +10488,7 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>317</v>
@@ -10520,7 +10505,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10546,13 +10531,13 @@
         <v>204</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>324</v>
@@ -10604,7 +10589,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10639,7 +10624,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10723,7 +10708,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10758,7 +10743,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10784,10 +10769,10 @@
         <v>45</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>390</v>
@@ -10842,7 +10827,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10880,7 +10865,7 @@
         <v>457</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>45</v>
@@ -10905,16 +10890,16 @@
         <v>387</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -10984,10 +10969,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -10998,7 +10983,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11113,7 +11098,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11230,7 +11215,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11349,7 +11334,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11375,13 +11360,13 @@
         <v>204</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>219</v>
@@ -11394,7 +11379,7 @@
         <v>45</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>45</v>
@@ -11433,7 +11418,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>55</v>
@@ -11451,7 +11436,7 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>224</v>
@@ -11468,7 +11453,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11491,16 +11476,16 @@
         <v>56</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>314</v>
@@ -11550,7 +11535,7 @@
         <v>237</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11568,7 +11553,7 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>317</v>
@@ -11585,10 +11570,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>45</v>
@@ -11610,16 +11595,16 @@
         <v>56</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>314</v>
@@ -11632,7 +11617,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>45</v>
@@ -11671,7 +11656,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11689,7 +11674,7 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>317</v>
@@ -11706,7 +11691,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11732,13 +11717,13 @@
         <v>204</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>324</v>
@@ -11790,7 +11775,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11825,7 +11810,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11909,7 +11894,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11944,7 +11929,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11970,10 +11955,10 @@
         <v>45</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>390</v>
@@ -12028,7 +12013,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12061,4276 +12046,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO123">
+  <autoFilter ref="A1:AO87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16340,7 +12057,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI122">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="489">
   <si>
     <t>Path</t>
   </si>
@@ -1414,37 +1414,23 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
-</t>
-  </si>
-  <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:resource}
-</t>
-  </si>
-  <si>
-    <t>allow a heart-rate observation that is related to this</t>
-  </si>
-  <si>
-    <t>Relationships established by OBX-4 usage</t>
-  </si>
-  <si>
-    <t>outBoundRelationship</t>
-  </si>
-  <si>
-    <t>heartRate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate)
 </t>
+  </si>
+  <si>
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+  </si>
+  <si>
+    <t>Relationships established by OBX-4 usage</t>
+  </si>
+  <si>
+    <t>outBoundRelationship</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1737,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO87"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1773,7 +1759,7 @@
     <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="47.25390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -8256,7 +8242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>440</v>
       </c>
@@ -8269,7 +8255,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>56</v>
@@ -8328,16 +8314,16 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>440</v>
@@ -8361,10 +8347,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8375,11 +8361,9 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8388,7 +8372,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8400,16 +8384,16 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8459,7 +8443,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8480,10 +8464,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8494,7 +8478,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8502,10 +8486,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8517,18 +8501,20 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8564,19 +8550,19 @@
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8597,10 +8583,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8611,7 +8597,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8619,10 +8605,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8631,23 +8617,19 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>387</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8683,31 +8665,31 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>457</v>
+        <v>71</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8716,10 +8698,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8730,18 +8712,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8753,15 +8735,17 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8810,19 +8794,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8845,11 +8829,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8862,24 +8846,26 @@
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8927,7 +8913,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8951,7 +8937,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8962,42 +8948,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9022,13 +9008,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9046,34 +9032,34 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9081,7 +9067,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9089,7 +9075,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>55</v>
@@ -9104,19 +9090,19 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>472</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9141,13 +9127,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9165,10 +9151,10 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>55</v>
@@ -9186,16 +9172,16 @@
         <v>473</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -9220,22 +9206,22 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>475</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9260,13 +9246,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9293,7 +9279,7 @@
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9302,19 +9288,19 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9323,14 +9309,14 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9345,16 +9331,16 @@
         <v>204</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9382,10 +9368,10 @@
         <v>113</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9409,10 +9395,10 @@
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9421,28 +9407,28 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9461,19 +9447,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9498,13 +9484,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9522,7 +9508,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9540,35 +9526,37 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9577,22 +9565,22 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9641,7 +9629,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9662,10 +9650,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9676,17 +9664,15 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>55</v>
@@ -9698,23 +9684,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>387</v>
+        <v>57</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>458</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9762,19 +9744,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>457</v>
+        <v>71</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9783,10 +9765,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9797,18 +9779,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9820,15 +9802,17 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9877,19 +9861,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9912,11 +9896,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9929,24 +9913,26 @@
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9994,7 +9980,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10018,7 +10004,7 @@
         <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10029,42 +10015,42 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10074,7 +10060,7 @@
         <v>45</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>45</v>
@@ -10089,13 +10075,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10113,34 +10099,34 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
@@ -10148,7 +10134,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10156,7 +10142,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>55</v>
@@ -10171,19 +10157,19 @@
         <v>56</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>204</v>
+        <v>484</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>472</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10193,7 +10179,7 @@
         <v>45</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>45</v>
@@ -10208,34 +10194,32 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>55</v>
@@ -10253,23 +10237,25 @@
         <v>473</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10290,16 +10276,16 @@
         <v>56</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>314</v>
@@ -10312,7 +10298,7 @@
         <v>45</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>45</v>
@@ -10339,17 +10325,19 @@
         <v>45</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB73" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10367,7 +10355,7 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>317</v>
@@ -10386,9 +10374,7 @@
       <c r="A74" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10406,22 +10392,22 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>488</v>
+        <v>204</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>475</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10431,7 +10417,7 @@
         <v>45</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>45</v>
@@ -10446,13 +10432,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10479,7 +10465,7 @@
         <v>55</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>67</v>
@@ -10488,19 +10474,19 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -10509,14 +10495,14 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10531,16 +10517,16 @@
         <v>204</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10568,10 +10554,10 @@
         <v>113</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10595,10 +10581,10 @@
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>67</v>
@@ -10607,28 +10593,28 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10647,19 +10633,19 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10684,13 +10670,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10708,7 +10694,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10726,35 +10712,37 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -10763,22 +10751,22 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10827,7 +10815,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10848,10 +10836,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10862,17 +10850,15 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>55</v>
@@ -10884,23 +10870,19 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>387</v>
+        <v>57</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>458</v>
+        <v>69</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10948,19 +10930,19 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>457</v>
+        <v>71</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>45</v>
@@ -10969,10 +10951,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -10983,18 +10965,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -11006,15 +10988,17 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11063,19 +11047,19 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>45</v>
@@ -11098,11 +11082,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11115,24 +11099,26 @@
         <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11180,7 +11166,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11204,7 +11190,7 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11215,42 +11201,42 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11260,7 +11246,7 @@
         <v>45</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>45</v>
@@ -11275,13 +11261,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11299,34 +11285,34 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
@@ -11334,7 +11320,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11342,7 +11328,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>55</v>
@@ -11357,19 +11343,19 @@
         <v>56</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>204</v>
+        <v>484</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>472</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11379,7 +11365,7 @@
         <v>45</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>45</v>
@@ -11394,34 +11380,32 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>55</v>
@@ -11439,23 +11423,25 @@
         <v>473</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11476,16 +11462,16 @@
         <v>56</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>314</v>
@@ -11498,7 +11484,7 @@
         <v>45</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>45</v>
@@ -11525,17 +11511,19 @@
         <v>45</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB83" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11553,7 +11541,7 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>317</v>
@@ -11572,9 +11560,7 @@
       <c r="A84" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="B84" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11592,22 +11578,22 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>488</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>475</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11617,7 +11603,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>45</v>
@@ -11632,13 +11618,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11665,7 +11651,7 @@
         <v>55</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>67</v>
@@ -11674,19 +11660,19 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -11695,14 +11681,14 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
@@ -11717,16 +11703,16 @@
         <v>204</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11754,10 +11740,10 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -11781,10 +11767,10 @@
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>67</v>
@@ -11793,28 +11779,28 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11833,19 +11819,19 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -11870,13 +11856,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -11894,7 +11880,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11912,142 +11898,23 @@
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO87" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO87">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12057,7 +11924,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -94,8 +94,8 @@
 - must not have a value[x]
 - must have two components
 - must have systolic and diastolic component values in mm[Hg]
-  - systolic must be between 50 &lt; s &lt; 250
-  - diastolic must be between 30 &lt; d &lt; 140
+  - systolic must be between 50 &lt;= s &lt;= 250
+  - diastolic must be between 30 &lt;= d &lt;= 140
 - may have a related has-member heart-rate observation
 - must have status at final
 - must point at the patient

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -88,7 +88,8 @@
   </si>
   <si>
     <t>A profile on the Observation that declares how MHV will Create/Update/Read in PGHD for blood pressure measurements.
-Note that Blood Pressure is not FHIR core Vital-Signs compliant as that requires 85354-9. This was not agreed by Mobile.
+Note: This profile is not aligned with FHIR core Vital-Signs. FHIR Core Vital-Signs would prefer we use [LOINC 85354-9](https://loinc.org/85354-9/) - Blood pressure panel with all children optional.
+This was not agreed by Mobile.
 - must be marked with MHV app tag
 - must have vital-signs category
 - must have LOINC#55284-4 code AND LOINC#8716-3

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -95,6 +95,7 @@
 - must have LOINC#55284-4 code AND LOINC#8716-3
   - 8716-3 was added as some mobile apps searched on this
 - must have effectiveDateTime
+  - others might use effectivePeriod
 - must not have a value[x]
 - must have two components
 - must have systolic and diastolic component values in mm[Hg]

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="609">
   <si>
     <t>Property</t>
   </si>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Measurements and simple assertions</t>
@@ -2506,16 +2510,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2580,16 +2584,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2600,10 +2604,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2614,7 +2618,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2623,19 +2627,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2685,13 +2689,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2720,10 +2724,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2734,7 +2738,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2743,16 +2747,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2803,19 +2807,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2838,10 +2842,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2852,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2864,13 +2868,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2921,13 +2925,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2945,7 +2949,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2956,14 +2960,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2982,16 +2986,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3029,19 +3033,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3053,7 +3057,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3065,7 +3069,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3076,10 +3080,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3090,7 +3094,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3099,19 +3103,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3161,19 +3165,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3196,10 +3200,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3210,7 +3214,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3219,19 +3223,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3281,19 +3285,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3316,10 +3320,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3330,7 +3334,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3339,19 +3343,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3401,19 +3405,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3436,10 +3440,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3459,19 +3463,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3521,7 +3525,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3533,7 +3537,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3556,10 +3560,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3579,19 +3583,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3617,13 +3621,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3641,7 +3645,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3653,7 +3657,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3676,10 +3680,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3687,10 +3691,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3699,19 +3703,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3722,7 +3726,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3737,13 +3741,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3761,7 +3765,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3773,7 +3777,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3796,10 +3800,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3816,22 +3820,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3881,19 +3885,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3916,10 +3920,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3942,16 +3946,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3977,13 +3981,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4001,19 +4005,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4036,21 +4040,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4062,16 +4066,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4121,19 +4125,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4145,7 +4149,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4156,14 +4160,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4182,16 +4186,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4241,7 +4245,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4265,7 +4269,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4276,10 +4280,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4302,13 +4306,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4359,7 +4363,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4371,7 +4375,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4394,10 +4398,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4414,19 +4418,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4477,7 +4481,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4489,7 +4493,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4512,10 +4516,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4535,20 +4539,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4597,7 +4601,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4609,22 +4613,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4632,14 +4636,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4655,20 +4659,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4717,7 +4721,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4729,19 +4733,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4752,14 +4756,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4775,19 +4779,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4837,7 +4841,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4849,19 +4853,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4872,10 +4876,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4883,34 +4887,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4920,7 +4924,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4935,13 +4939,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4959,34 +4963,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4994,10 +4998,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5005,10 +5009,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5020,19 +5024,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5042,7 +5046,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -5057,13 +5061,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -5081,7 +5085,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5093,7 +5097,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5105,10 +5109,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5116,21 +5120,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -5139,22 +5143,22 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5179,13 +5183,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5203,45 +5207,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5252,7 +5256,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5264,13 +5268,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5321,13 +5325,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5345,7 +5349,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5356,14 +5360,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5382,16 +5386,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5429,19 +5433,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5453,7 +5457,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5465,7 +5469,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5476,10 +5480,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5487,10 +5491,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5499,22 +5503,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5551,17 +5555,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5573,7 +5577,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5582,10 +5586,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5596,23 +5600,23 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5621,22 +5625,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5646,7 +5650,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5685,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5701,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5706,10 +5710,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5720,23 +5724,23 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5745,22 +5749,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5770,7 +5774,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5809,7 +5813,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5821,7 +5825,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5830,10 +5834,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5844,10 +5848,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5858,7 +5862,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5867,22 +5871,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5931,19 +5935,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5952,10 +5956,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5966,10 +5970,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5977,10 +5981,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5989,22 +5993,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6053,34 +6057,34 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -6088,10 +6092,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6111,19 +6115,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6173,7 +6177,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6185,7 +6189,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6194,13 +6198,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6208,14 +6212,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6231,22 +6235,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6295,34 +6299,34 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6330,21 +6334,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6353,22 +6357,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6405,44 +6409,44 @@
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6450,23 +6454,23 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6475,22 +6479,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6539,34 +6543,34 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6574,10 +6578,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6597,19 +6601,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6659,19 +6663,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6680,13 +6684,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6694,10 +6698,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6717,20 +6721,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6779,7 +6783,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6791,22 +6795,22 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6814,10 +6818,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6837,22 +6841,22 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6901,45 +6905,45 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6962,19 +6966,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6999,13 +7003,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -7023,19 +7027,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7044,10 +7048,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7058,14 +7062,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7084,19 +7088,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7121,13 +7125,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7145,7 +7149,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7157,33 +7161,33 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7194,7 +7198,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7206,19 +7210,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7267,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7279,7 +7283,7 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7288,10 +7292,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7302,10 +7306,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7328,16 +7332,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7363,13 +7367,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7387,45 +7391,45 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7448,19 +7452,19 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7485,13 +7489,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7509,19 +7513,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7530,10 +7534,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7544,10 +7548,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7570,16 +7574,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7629,45 +7633,45 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7690,16 +7694,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7749,45 +7753,45 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7810,19 +7814,19 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7871,7 +7875,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7883,7 +7887,7 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7892,10 +7896,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7906,10 +7910,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7920,7 +7924,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7932,13 +7936,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7989,13 +7993,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -8013,7 +8017,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8024,14 +8028,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8050,16 +8054,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8109,7 +8113,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8121,7 +8125,7 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8133,7 +8137,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8144,14 +8148,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8164,25 +8168,25 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8231,7 +8235,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8243,7 +8247,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8255,7 +8259,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8266,10 +8270,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8280,7 +8284,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8292,13 +8296,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8349,19 +8353,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8370,10 +8374,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8384,10 +8388,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8398,7 +8402,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8410,13 +8414,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8467,19 +8471,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8488,10 +8492,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8502,10 +8506,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8516,7 +8520,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8528,19 +8532,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8565,13 +8569,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8589,31 +8593,31 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8624,10 +8628,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8650,19 +8654,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8687,13 +8691,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8711,7 +8715,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8723,19 +8727,19 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8746,10 +8750,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8760,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8772,17 +8776,17 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8831,19 +8835,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8855,7 +8859,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8866,10 +8870,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8880,7 +8884,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8892,13 +8896,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8949,19 +8953,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8970,10 +8974,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8984,10 +8988,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8998,28 +9002,28 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9069,7 +9073,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9081,7 +9085,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9090,10 +9094,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9104,10 +9108,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9127,19 +9131,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9189,7 +9193,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9201,7 +9205,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9210,10 +9214,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9224,10 +9228,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9235,10 +9239,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9247,22 +9251,22 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9299,19 +9303,19 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9323,7 +9327,7 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9332,10 +9336,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9346,10 +9350,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9360,7 +9364,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9372,13 +9376,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9429,13 +9433,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9453,7 +9457,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9464,14 +9468,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9490,16 +9494,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9549,7 +9553,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9561,7 +9565,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9573,7 +9577,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9584,14 +9588,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9604,25 +9608,25 @@
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9671,7 +9675,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9683,7 +9687,7 @@
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9695,7 +9699,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9706,10 +9710,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9717,10 +9721,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9729,22 +9733,22 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9769,13 +9773,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9793,34 +9797,34 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9828,10 +9832,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9842,7 +9846,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9851,22 +9855,22 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9915,45 +9919,45 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9964,7 +9968,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9976,19 +9980,19 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10013,13 +10017,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10037,19 +10041,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10058,10 +10062,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10072,14 +10076,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10098,19 +10102,19 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10135,13 +10139,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10159,7 +10163,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10171,33 +10175,33 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10223,16 +10227,16 @@
         <v>82</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10281,7 +10285,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10293,7 +10297,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10302,10 +10306,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10316,23 +10320,23 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10341,22 +10345,22 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10405,7 +10409,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10417,7 +10421,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10426,10 +10430,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10440,10 +10444,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10454,7 +10458,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10466,13 +10470,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10523,13 +10527,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10547,7 +10551,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10558,14 +10562,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10584,16 +10588,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10643,7 +10647,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10655,7 +10659,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10667,7 +10671,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10678,14 +10682,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10698,25 +10702,25 @@
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10765,7 +10769,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10777,7 +10781,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10789,7 +10793,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10800,10 +10804,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10811,10 +10815,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10823,22 +10827,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10848,7 +10852,7 @@
         <v>82</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>82</v>
@@ -10863,13 +10867,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10887,34 +10891,34 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -10922,10 +10926,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10936,7 +10940,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10945,22 +10949,22 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10997,58 +11001,58 @@
         <v>82</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>82</v>
@@ -11058,7 +11062,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11067,22 +11071,22 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11092,7 +11096,7 @@
         <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>82</v>
@@ -11131,45 +11135,45 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11180,7 +11184,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11192,13 +11196,13 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11249,13 +11253,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11273,7 +11277,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11284,14 +11288,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11310,16 +11314,16 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11357,19 +11361,19 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11381,7 +11385,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11393,7 +11397,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11404,10 +11408,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11418,7 +11422,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11427,22 +11431,22 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11458,10 +11462,10 @@
         <v>82</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="W76" t="s" s="2">
         <v>82</v>
@@ -11491,19 +11495,19 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11512,10 +11516,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11526,10 +11530,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11540,35 +11544,35 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q77" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>82</v>
@@ -11589,13 +11593,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11613,19 +11617,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11634,10 +11638,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11648,10 +11652,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11662,7 +11666,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11671,20 +11675,20 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11733,19 +11737,19 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11754,10 +11758,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11768,10 +11772,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11782,7 +11786,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11791,20 +11795,20 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11853,19 +11857,19 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11874,10 +11878,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11888,10 +11892,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11902,7 +11906,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11911,22 +11915,22 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11975,19 +11979,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11996,10 +12000,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12010,10 +12014,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12024,7 +12028,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12036,19 +12040,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12073,13 +12077,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12097,19 +12101,19 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12118,10 +12122,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12132,14 +12136,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12158,19 +12162,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12195,13 +12199,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12219,7 +12223,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12231,33 +12235,33 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12280,19 +12284,19 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12341,7 +12345,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12353,7 +12357,7 @@
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12362,10 +12366,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12376,23 +12380,23 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12401,22 +12405,22 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12465,7 +12469,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12477,7 +12481,7 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12486,10 +12490,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12500,10 +12504,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12514,7 +12518,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12526,13 +12530,13 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12583,13 +12587,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12607,7 +12611,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12618,14 +12622,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12644,16 +12648,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12703,7 +12707,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12715,7 +12719,7 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12727,7 +12731,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12738,14 +12742,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12758,25 +12762,25 @@
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12825,7 +12829,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12837,7 +12841,7 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12849,7 +12853,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12860,10 +12864,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12871,10 +12875,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12883,22 +12887,22 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12908,7 +12912,7 @@
         <v>82</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>82</v>
@@ -12923,13 +12927,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12947,34 +12951,34 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -12982,10 +12986,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12996,7 +13000,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13005,22 +13009,22 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13057,58 +13061,58 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>82</v>
@@ -13118,7 +13122,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13127,22 +13131,22 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13152,7 +13156,7 @@
         <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>82</v>
@@ -13191,45 +13195,45 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13240,7 +13244,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13252,13 +13256,13 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13309,13 +13313,13 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
@@ -13333,7 +13337,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13344,14 +13348,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13370,16 +13374,16 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13417,19 +13421,19 @@
         <v>82</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13441,7 +13445,7 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13453,7 +13457,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13464,10 +13468,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13478,7 +13482,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13487,22 +13491,22 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13518,10 +13522,10 @@
         <v>82</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="V93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W93" t="s" s="2">
         <v>82</v>
@@ -13551,19 +13555,19 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13572,10 +13576,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13586,10 +13590,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13600,35 +13604,35 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>82</v>
@@ -13649,13 +13653,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13673,19 +13677,19 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13694,10 +13698,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13708,10 +13712,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13722,7 +13726,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13731,20 +13735,20 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13793,19 +13797,19 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -13814,10 +13818,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13828,10 +13832,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13842,7 +13846,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13851,20 +13855,20 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13913,19 +13917,19 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -13934,10 +13938,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13948,10 +13952,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13962,7 +13966,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13971,22 +13975,22 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14035,19 +14039,19 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14056,10 +14060,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14070,10 +14074,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14084,7 +14088,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14096,19 +14100,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14133,13 +14137,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14157,19 +14161,19 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14178,10 +14182,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14192,14 +14196,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14218,19 +14222,19 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14255,13 +14259,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14279,7 +14283,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14291,33 +14295,33 @@
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14340,19 +14344,19 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14401,7 +14405,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14413,7 +14417,7 @@
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14422,10 +14426,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV will Create/Update/Read in PGHD for blood pressure measurements.
+    <t>A profile on the Observation that declares how MHV will Create/Read in PGHD for blood pressure measurements.
 Note: This profile is not aligned with FHIR core Vital-Signs. FHIR Core Vital-Signs would prefer we use [LOINC 85354-9](https://loinc.org/85354-9/) - Blood pressure panel with all children optional.
 This was not agreed by Mobile.
 - must be marked with MHV app tag

--- a/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodPressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -99,8 +99,8 @@
 - must not have a value[x]
 - must have two components
 - must have systolic and diastolic component values in mm[Hg]
-  - systolic must be between 50 &lt;= s &lt;= 250
-  - diastolic must be between 30 &lt;= d &lt;= 140
+  - systolic must be between 20 &lt;= s &lt;= 300
+  - diastolic must be between 20 &lt;= d &lt;= 250
 - may have a related has-member heart-rate observation
 - must have status at final
 - must point at the patient
@@ -300,6 +300,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -457,7 +461,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -477,7 +481,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1564,7 +1568,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1715,31 +1719,25 @@
 </t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="mm[Hg]"/&gt;
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.id</t>
+    <t>Observation.component:diastolicBP.value[x].id</t>
   </si>
   <si>
     <t>Observation.component.value[x].id</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.extension</t>
+    <t>Observation.component:diastolicBP.value[x].extension</t>
   </si>
   <si>
     <t>Observation.component.value[x].extension</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.value</t>
+    <t>Observation.component:diastolicBP.value[x].value</t>
   </si>
   <si>
     <t>Observation.component.value[x].value</t>
@@ -1762,14 +1760,14 @@
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="30"/&gt;
+  &lt;value value="20"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="mm[Hg]"/&gt;
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="140"/&gt;
+  &lt;value value="250"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="mm[Hg]"/&gt;
 &lt;/valueQuantity&gt;</t>
@@ -1784,7 +1782,7 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.comparator</t>
+    <t>Observation.component:diastolicBP.value[x].comparator</t>
   </si>
   <si>
     <t>Observation.component.value[x].comparator</t>
@@ -1817,7 +1815,7 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.unit</t>
+    <t>Observation.component:diastolicBP.value[x].unit</t>
   </si>
   <si>
     <t>Observation.component.value[x].unit</t>
@@ -1841,7 +1839,7 @@
     <t>PQ.unit</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.system</t>
+    <t>Observation.component:diastolicBP.value[x].system</t>
   </si>
   <si>
     <t>Observation.component.value[x].system</t>
@@ -1866,7 +1864,7 @@
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
   </si>
   <si>
-    <t>Observation.component:diastolicBP.value[x]:valueQuantity.code</t>
+    <t>Observation.component:diastolicBP.value[x].code</t>
   </si>
   <si>
     <t>Observation.component.value[x].code</t>
@@ -1928,42 +1926,32 @@
     <t>Observation.component:systolicBP.value[x]</t>
   </si>
   <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.value</t>
+    <t>Observation.component:systolicBP.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component:systolicBP.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component:systolicBP.value[x].value</t>
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="50"/&gt;
+  &lt;value value="300"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="mm[Hg]"/&gt;
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
-    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="250"/&gt;
-  &lt;system value="http://unitsofmeasure.org"/&gt;
-  &lt;code value="mm[Hg]"/&gt;
-&lt;/valueQuantity&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.system</t>
-  </si>
-  <si>
-    <t>Observation.component:systolicBP.value[x]:valueQuantity.code</t>
+    <t>Observation.component:systolicBP.value[x].comparator</t>
+  </si>
+  <si>
+    <t>Observation.component:systolicBP.value[x].unit</t>
+  </si>
+  <si>
+    <t>Observation.component:systolicBP.value[x].system</t>
+  </si>
+  <si>
+    <t>Observation.component:systolicBP.value[x].code</t>
   </si>
   <si>
     <t>Observation.component:systolicBP.dataAbsentReason</t>
@@ -2094,10 +2082,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2302,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP100"/>
+  <dimension ref="A1:AP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2311,7 +2299,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.93359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2581,19 +2569,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2604,10 +2592,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2618,7 +2606,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2627,19 +2615,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2689,13 +2677,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2724,10 +2712,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2738,7 +2726,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2747,16 +2735,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2807,19 +2795,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2842,10 +2830,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2856,7 +2844,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2868,13 +2856,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2925,13 +2913,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2949,7 +2937,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2960,14 +2948,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2986,16 +2974,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3033,19 +3021,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3057,7 +3045,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3069,7 +3057,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3080,10 +3068,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3094,7 +3082,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3103,19 +3091,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3165,19 +3153,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3200,10 +3188,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3214,7 +3202,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3223,19 +3211,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3285,19 +3273,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3320,10 +3308,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3334,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3343,19 +3331,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3405,19 +3393,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3440,10 +3428,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3463,19 +3451,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3525,7 +3513,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3537,7 +3525,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3560,10 +3548,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3583,19 +3571,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3621,13 +3609,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3645,7 +3633,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3657,7 +3645,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3680,10 +3668,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3691,10 +3679,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3703,19 +3691,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3726,7 +3714,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3741,13 +3729,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3765,7 +3753,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3777,7 +3765,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3800,10 +3788,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3820,22 +3808,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3885,19 +3873,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3920,10 +3908,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3946,16 +3934,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3981,13 +3969,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4005,19 +3993,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4040,21 +4028,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4066,16 +4054,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4125,19 +4113,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4149,7 +4137,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4160,14 +4148,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4186,16 +4174,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4245,7 +4233,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4269,7 +4257,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4280,10 +4268,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4306,13 +4294,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4363,7 +4351,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4375,7 +4363,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4398,10 +4386,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4418,19 +4406,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4481,7 +4469,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4493,7 +4481,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4516,10 +4504,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4539,20 +4527,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4601,7 +4589,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4613,22 +4601,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4636,14 +4624,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4659,20 +4647,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4721,7 +4709,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4733,19 +4721,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4756,14 +4744,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4779,19 +4767,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4841,7 +4829,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4853,19 +4841,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4876,10 +4864,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4887,34 +4875,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4924,7 +4912,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4939,13 +4927,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4963,34 +4951,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4998,10 +4986,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5009,10 +4997,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5024,19 +5012,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5046,7 +5034,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -5061,13 +5049,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -5085,7 +5073,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5097,7 +5085,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5109,10 +5097,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5120,21 +5108,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -5143,22 +5131,22 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5183,13 +5171,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5207,45 +5195,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5256,7 +5244,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5268,13 +5256,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5325,13 +5313,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5349,7 +5337,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5360,14 +5348,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5386,16 +5374,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5433,19 +5421,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5457,7 +5445,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5469,7 +5457,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5480,10 +5468,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5491,10 +5479,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5503,22 +5491,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5555,17 +5543,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5577,7 +5565,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5586,10 +5574,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5600,23 +5588,23 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5625,22 +5613,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5650,7 +5638,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5689,7 +5677,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5701,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5710,10 +5698,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5724,23 +5712,23 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5749,22 +5737,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5774,7 +5762,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5813,7 +5801,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5825,7 +5813,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5834,10 +5822,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5848,10 +5836,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5862,7 +5850,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5871,22 +5859,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5935,19 +5923,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5956,10 +5944,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5970,10 +5958,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5981,10 +5969,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5993,22 +5981,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6057,34 +6045,34 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -6092,10 +6080,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6115,19 +6103,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6177,7 +6165,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6189,7 +6177,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6198,13 +6186,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6212,14 +6200,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6235,22 +6223,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6299,34 +6287,34 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6334,21 +6322,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6357,22 +6345,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6409,44 +6397,44 @@
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6454,23 +6442,23 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6479,22 +6467,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6543,34 +6531,34 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6578,10 +6566,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6601,19 +6589,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6663,19 +6651,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6684,13 +6672,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6698,10 +6686,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6721,20 +6709,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6783,7 +6771,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6795,22 +6783,22 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6818,10 +6806,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6841,22 +6829,22 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6905,45 +6893,45 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6966,19 +6954,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7003,13 +6991,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -7027,19 +7015,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7048,10 +7036,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7062,14 +7050,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7088,19 +7076,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7125,13 +7113,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7149,7 +7137,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7161,33 +7149,33 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7198,7 +7186,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7210,19 +7198,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7271,7 +7259,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7283,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7292,10 +7280,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7306,10 +7294,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7332,16 +7320,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7367,13 +7355,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7391,45 +7379,45 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7452,19 +7440,19 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7489,13 +7477,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7513,19 +7501,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7534,10 +7522,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7548,10 +7536,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7574,16 +7562,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7633,45 +7621,45 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7694,16 +7682,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7753,45 +7741,45 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7814,19 +7802,19 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7875,7 +7863,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7887,7 +7875,7 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7896,10 +7884,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7910,10 +7898,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7924,7 +7912,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7936,13 +7924,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7993,13 +7981,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -8017,7 +8005,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8028,14 +8016,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8054,16 +8042,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8113,7 +8101,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8125,7 +8113,7 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8137,7 +8125,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8148,14 +8136,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8168,25 +8156,25 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8235,7 +8223,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8247,7 +8235,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8259,7 +8247,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8270,10 +8258,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8284,7 +8272,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8296,13 +8284,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8353,19 +8341,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8374,10 +8362,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8388,10 +8376,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8402,7 +8390,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8414,13 +8402,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8471,19 +8459,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8492,10 +8480,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8506,10 +8494,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8520,7 +8508,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8532,19 +8520,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8569,13 +8557,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8593,31 +8581,31 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8628,10 +8616,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8654,19 +8642,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8691,13 +8679,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8715,7 +8703,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8727,19 +8715,19 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8750,10 +8738,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8764,7 +8752,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8776,17 +8764,17 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8835,19 +8823,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8859,7 +8847,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8870,10 +8858,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8884,7 +8872,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8896,13 +8884,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8953,19 +8941,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8974,10 +8962,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8988,10 +8976,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9002,28 +8990,28 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9073,7 +9061,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9085,7 +9073,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9094,10 +9082,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9108,10 +9096,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9131,19 +9119,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9193,7 +9181,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9205,7 +9193,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9214,10 +9202,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9228,10 +9216,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9239,10 +9227,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9251,22 +9239,22 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9303,19 +9291,19 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9327,7 +9315,7 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9336,10 +9324,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9350,10 +9338,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9364,7 +9352,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9376,13 +9364,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9433,13 +9421,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9457,7 +9445,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9468,14 +9456,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9494,16 +9482,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9553,7 +9541,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9565,7 +9553,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9577,7 +9565,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9588,14 +9576,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9608,25 +9596,25 @@
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9675,7 +9663,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9687,7 +9675,7 @@
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9699,7 +9687,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9710,10 +9698,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9721,10 +9709,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9733,22 +9721,22 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9773,13 +9761,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9797,34 +9785,34 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9832,10 +9820,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9846,7 +9834,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9855,22 +9843,22 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9919,45 +9907,45 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9968,7 +9956,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9980,19 +9968,19 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10017,13 +10005,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10041,19 +10029,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10062,10 +10050,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10076,14 +10064,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10102,19 +10090,19 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10139,13 +10127,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10163,7 +10151,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10175,33 +10163,33 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10227,16 +10215,16 @@
         <v>82</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10285,7 +10273,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10297,7 +10285,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10306,10 +10294,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10320,23 +10308,23 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10345,22 +10333,22 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10409,7 +10397,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10421,7 +10409,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10430,10 +10418,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10444,10 +10432,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10458,7 +10446,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10470,13 +10458,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10527,13 +10515,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10551,7 +10539,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10562,14 +10550,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10588,16 +10576,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10647,7 +10635,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10659,7 +10647,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10671,7 +10659,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10682,14 +10670,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10702,25 +10690,25 @@
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10769,7 +10757,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10781,7 +10769,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10793,7 +10781,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10804,10 +10792,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10815,10 +10803,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10827,22 +10815,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10852,7 +10840,7 @@
         <v>82</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>82</v>
@@ -10867,13 +10855,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10891,34 +10879,34 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -10926,10 +10914,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10940,7 +10928,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10949,22 +10937,22 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10974,7 +10962,7 @@
         <v>82</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>82</v>
@@ -11001,59 +10989,59 @@
         <v>82</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11062,7 +11050,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11071,23 +11059,19 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>530</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11096,7 +11080,7 @@
         <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>82</v>
@@ -11135,56 +11119,56 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11196,15 +11180,17 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11241,31 +11227,31 @@
         <v>82</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11277,7 +11263,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11288,21 +11274,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11311,21 +11297,23 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>113</v>
+        <v>539</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>114</v>
+        <v>540</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>115</v>
+        <v>541</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11340,10 +11328,10 @@
         <v>82</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>82</v>
@@ -11361,31 +11349,31 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>120</v>
+        <v>546</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11394,10 +11382,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>110</v>
+        <v>548</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11408,10 +11396,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11422,92 +11410,92 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K76" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11516,10 +11504,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11530,10 +11518,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11544,36 +11532,34 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q77" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11593,13 +11579,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11617,19 +11603,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11638,10 +11624,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11652,10 +11638,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11666,7 +11652,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11675,20 +11661,20 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11737,31 +11723,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11772,10 +11758,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11786,7 +11772,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11795,20 +11781,22 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O79" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11857,19 +11845,19 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11878,10 +11866,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11892,10 +11880,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>578</v>
+        <v>515</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11906,7 +11894,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11915,22 +11903,22 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>579</v>
+        <v>516</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>580</v>
+        <v>517</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>581</v>
+        <v>518</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>582</v>
+        <v>365</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11955,13 +11943,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11979,19 +11967,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12000,10 +11988,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>567</v>
+        <v>193</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>584</v>
+        <v>369</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12017,18 +12005,18 @@
         <v>585</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12040,19 +12028,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>516</v>
+        <v>373</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>517</v>
+        <v>374</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12077,13 +12065,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12101,37 +12089,37 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -12139,11 +12127,11 @@
         <v>586</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12162,19 +12150,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>371</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>372</v>
+        <v>522</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12199,13 +12187,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12223,7 +12211,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12235,25 +12223,25 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" hidden="true">
@@ -12261,18 +12249,20 @@
         <v>587</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12281,22 +12271,22 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12345,7 +12335,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12357,7 +12347,7 @@
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12366,10 +12356,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12380,23 +12370,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12405,23 +12393,19 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>494</v>
+        <v>108</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12469,19 +12453,19 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12490,10 +12474,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>501</v>
+        <v>111</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12507,18 +12491,18 @@
         <v>590</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12530,15 +12514,17 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12587,19 +12573,19 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12611,7 +12597,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12625,11 +12611,11 @@
         <v>591</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>112</v>
+        <v>439</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12642,24 +12628,26 @@
         <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>114</v>
+        <v>440</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>115</v>
+        <v>441</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12707,7 +12695,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>120</v>
+        <v>443</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12719,7 +12707,7 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12731,7 +12719,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12745,42 +12733,42 @@
         <v>592</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>116</v>
+        <v>509</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12790,7 +12778,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12805,13 +12793,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12829,34 +12817,34 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>82</v>
@@ -12864,10 +12852,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12875,10 +12863,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12887,22 +12875,22 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>241</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>507</v>
+        <v>353</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12912,7 +12900,7 @@
         <v>82</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>594</v>
+        <v>532</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>82</v>
@@ -12927,13 +12915,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12951,37 +12939,37 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" hidden="true">
@@ -12989,7 +12977,7 @@
         <v>595</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13000,7 +12988,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13009,23 +12997,19 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>530</v>
+        <v>107</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>511</v>
+        <v>108</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13061,47 +13045,49 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AC89" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -13109,20 +13095,18 @@
         <v>596</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13131,23 +13115,21 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>530</v>
+        <v>114</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>511</v>
+        <v>115</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13156,7 +13138,7 @@
         <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>82</v>
@@ -13183,49 +13165,49 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>510</v>
+        <v>121</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -13233,7 +13215,7 @@
         <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13244,7 +13226,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13253,19 +13235,23 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>106</v>
+        <v>539</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>107</v>
+        <v>540</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13280,10 +13266,10 @@
         <v>82</v>
       </c>
       <c r="U91" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="V91" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="W91" t="s" s="2">
         <v>82</v>
@@ -13313,19 +13299,19 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>109</v>
+        <v>546</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13334,10 +13320,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>110</v>
+        <v>548</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13348,48 +13334,50 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>114</v>
+        <v>551</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="R92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13409,43 +13397,43 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>120</v>
+        <v>557</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13454,10 +13442,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>110</v>
+        <v>559</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13468,10 +13456,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13482,7 +13470,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13491,22 +13479,20 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>540</v>
+        <v>107</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13522,10 +13508,10 @@
         <v>82</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="V93" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="W93" t="s" s="2">
         <v>82</v>
@@ -13555,19 +13541,19 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13576,10 +13562,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13590,10 +13576,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13604,36 +13590,34 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q94" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13653,13 +13637,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13677,19 +13661,19 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13698,10 +13682,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13712,10 +13696,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13726,7 +13710,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13735,20 +13719,22 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13797,31 +13783,31 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="AN95" t="s" s="2">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13832,10 +13818,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13846,7 +13832,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13855,20 +13841,22 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O96" t="s" s="2">
-        <v>573</v>
+        <v>365</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13893,13 +13881,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13917,19 +13905,19 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>575</v>
+        <v>368</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -13938,10 +13926,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>567</v>
+        <v>193</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>576</v>
+        <v>369</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13952,21 +13940,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13975,22 +13963,22 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>579</v>
+        <v>372</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>580</v>
+        <v>373</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>581</v>
+        <v>374</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>582</v>
+        <v>375</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14015,13 +14003,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14039,45 +14027,45 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>567</v>
+        <v>379</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>584</v>
+        <v>380</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14088,7 +14076,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14100,19 +14088,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>517</v>
+        <v>431</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14137,13 +14125,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14161,19 +14149,19 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14182,264 +14170,20 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>192</v>
+        <v>434</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP100" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP100">
+  <autoFilter ref="A1:AP98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14449,7 +14193,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
